--- a/Files/Member List.xlsx
+++ b/Files/Member List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Accounting Recreational Club\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33080010-9C85-4F8F-BBCF-0B44528D01D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0921231-CFE0-4E12-A808-3CE7D6D16574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="356">
   <si>
     <t>No.</t>
   </si>
@@ -1054,13 +1056,73 @@
   </si>
   <si>
     <t>CBV=Cannot be verified</t>
+  </si>
+  <si>
+    <t>Chia Kiong Hing</t>
+  </si>
+  <si>
+    <t>981229-13-5781</t>
+  </si>
+  <si>
+    <t>016-3902114</t>
+  </si>
+  <si>
+    <t>chiakionghing@gmail.com</t>
+  </si>
+  <si>
+    <t>Lu Elim</t>
+  </si>
+  <si>
+    <t>990918-13-6120</t>
+  </si>
+  <si>
+    <t>016-8098528</t>
+  </si>
+  <si>
+    <t>lu6130@gmail.com</t>
+  </si>
+  <si>
+    <t>Tan Yuh Shiow</t>
+  </si>
+  <si>
+    <t>980411-13-6006</t>
+  </si>
+  <si>
+    <t>012-8902412</t>
+  </si>
+  <si>
+    <t>justkitty98@gmail.com</t>
+  </si>
+  <si>
+    <t>Wong Jie Ing, Winnie</t>
+  </si>
+  <si>
+    <t>990204-13-5886</t>
+  </si>
+  <si>
+    <t>011-10572536</t>
+  </si>
+  <si>
+    <t>winniewong0204.ww@gmail.com</t>
+  </si>
+  <si>
+    <t>Wong Nyike Ping</t>
+  </si>
+  <si>
+    <t>990415-13-5800</t>
+  </si>
+  <si>
+    <t>011-10583519</t>
+  </si>
+  <si>
+    <t>nyikeping15@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,6 +1143,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1099,10 +1175,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1140,8 +1217,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -1592,19 +1682,19 @@
   </sheetPr>
   <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="29.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="9" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="9"/>
     <col min="10" max="10" width="7.5703125" style="9" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="9"/>
@@ -1709,11 +1799,20 @@
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>12</v>
+      <c r="B7" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>337</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>8</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>339</v>
       </c>
       <c r="G7" s="12"/>
     </row>
@@ -1722,10 +1821,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G8" s="12"/>
     </row>
@@ -1734,10 +1833,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G9" s="12"/>
     </row>
@@ -1746,10 +1845,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G10" s="12"/>
     </row>
@@ -1758,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>47</v>
@@ -1770,19 +1869,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>327</v>
+        <v>47</v>
       </c>
       <c r="G12" s="12"/>
     </row>
@@ -1791,13 +1881,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>8</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>327</v>
       </c>
       <c r="G13" s="12"/>
     </row>
@@ -1805,13 +1901,15 @@
       <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1819,14 +1917,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>258</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="12"/>
@@ -1835,46 +1929,42 @@
       <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B16" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>323</v>
-      </c>
+      <c r="B18" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1882,13 +1972,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>323</v>
       </c>
       <c r="G19" s="12"/>
     </row>
@@ -1896,17 +1992,15 @@
       <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="B20" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1914,10 +2008,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+        <v>246</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="12"/>
@@ -1926,21 +2024,13 @@
       <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>309</v>
-      </c>
+      <c r="B22" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1948,13 +2038,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>8</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -1963,13 +2059,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G24" s="12"/>
     </row>
@@ -1978,10 +2074,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>34</v>
@@ -1993,10 +2089,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G26" s="12"/>
     </row>
@@ -2005,19 +2104,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>306</v>
+        <v>47</v>
       </c>
       <c r="G27" s="12"/>
     </row>
@@ -2026,10 +2116,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="G28" s="12"/>
     </row>
@@ -2038,7 +2137,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>47</v>
@@ -2050,13 +2149,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G30" s="12"/>
     </row>
@@ -2065,10 +2161,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>45</v>
+        <v>270</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G31" s="12"/>
     </row>
@@ -2076,38 +2175,37 @@
       <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="B32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B33" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="B34" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2115,7 +2213,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -2127,12 +2225,13 @@
       <c r="A36" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="B36" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2140,10 +2239,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="G37" s="12"/>
     </row>
@@ -2152,13 +2251,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G38" s="12"/>
     </row>
@@ -2167,10 +2263,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G39" s="12"/>
     </row>
@@ -2179,13 +2278,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G40" s="12"/>
     </row>
@@ -2194,10 +2290,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>271</v>
+        <v>57</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G41" s="12"/>
     </row>
@@ -2206,10 +2305,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>60</v>
+        <v>271</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>258</v>
+        <v>47</v>
       </c>
       <c r="G42" s="12"/>
     </row>
@@ -2218,13 +2317,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>8</v>
+        <v>258</v>
       </c>
       <c r="G43" s="12"/>
     </row>
@@ -2233,7 +2329,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>8</v>
@@ -2244,13 +2343,12 @@
       <c r="A45" s="10">
         <v>44</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="B45" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="G45" s="12"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2258,7 +2356,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -2270,12 +2368,13 @@
       <c r="A47" s="10">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B47" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="12"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2283,13 +2382,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="G48" s="12"/>
     </row>
@@ -2297,32 +2393,32 @@
       <c r="A49" s="10">
         <v>48</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="B49" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="G49" s="12"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B50" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="12"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2330,10 +2426,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G51" s="12"/>
     </row>
@@ -2342,19 +2441,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>311</v>
+        <v>47</v>
       </c>
       <c r="G52" s="12"/>
     </row>
@@ -2363,10 +2453,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>75</v>
+        <v>273</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="G53" s="12"/>
     </row>
@@ -2375,13 +2474,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G54" s="12"/>
     </row>
@@ -2390,19 +2486,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>289</v>
+        <v>8</v>
       </c>
       <c r="G55" s="12"/>
     </row>
@@ -2410,28 +2500,34 @@
       <c r="A56" s="10">
         <v>55</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="B56" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="G56" s="12"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="B57" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2439,13 +2535,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="G58" s="12"/>
     </row>
@@ -2454,7 +2550,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>47</v>
@@ -2465,25 +2564,25 @@
       <c r="A60" s="10">
         <v>59</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="B60" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="G60" s="12"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B61" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
       <c r="G61" s="12"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2491,10 +2590,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="G62" s="12"/>
     </row>
@@ -2503,10 +2602,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G63" s="12"/>
     </row>
@@ -2515,13 +2614,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G64" s="12"/>
     </row>
@@ -2530,10 +2626,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G65" s="12"/>
     </row>
@@ -2541,25 +2640,25 @@
       <c r="A66" s="10">
         <v>65</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
+      <c r="B66" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="G66" s="12"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="B67" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
       <c r="G67" s="12"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2567,7 +2666,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>47</v>
@@ -2578,20 +2677,11 @@
       <c r="A69" s="10">
         <v>68</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>291</v>
+      <c r="B69" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="G69" s="12"/>
     </row>
@@ -2599,11 +2689,20 @@
       <c r="A70" s="10">
         <v>69</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>47</v>
+      <c r="B70" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G70" s="12"/>
     </row>
@@ -2612,19 +2711,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>299</v>
+        <v>47</v>
       </c>
       <c r="G71" s="12"/>
     </row>
@@ -2632,25 +2722,34 @@
       <c r="A72" s="10">
         <v>71</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
+      <c r="B72" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>299</v>
+      </c>
       <c r="G72" s="12"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>72</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>258</v>
-      </c>
+      <c r="B73" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
       <c r="G73" s="12"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2658,10 +2757,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>8</v>
+        <v>258</v>
       </c>
       <c r="G74" s="12"/>
     </row>
@@ -2669,14 +2768,20 @@
       <c r="A75" s="10">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>105</v>
+      <c r="B75" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>341</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>343</v>
       </c>
       <c r="G75" s="12"/>
     </row>
@@ -2685,13 +2790,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G76" s="12"/>
     </row>
@@ -2700,10 +2802,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G77" s="12"/>
     </row>
@@ -2712,10 +2817,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G78" s="12"/>
     </row>
@@ -2724,10 +2832,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>258</v>
+        <v>8</v>
       </c>
       <c r="G79" s="12"/>
     </row>
@@ -2735,13 +2843,12 @@
       <c r="A80" s="10">
         <v>79</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="B80" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="G80" s="12"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2749,13 +2856,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
       <c r="G81" s="12"/>
     </row>
@@ -2764,7 +2868,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -2777,7 +2881,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>47</v>
@@ -2788,21 +2895,13 @@
       <c r="A84" s="10">
         <v>83</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>294</v>
-      </c>
+      <c r="B84" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="12"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2810,10 +2909,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G85" s="12"/>
     </row>
@@ -2822,10 +2921,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>274</v>
+        <v>292</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>293</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>101</v>
+        <v>8</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="G86" s="12"/>
     </row>
@@ -2834,7 +2942,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>226</v>
+        <v>117</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="G87" s="12"/>
     </row>
@@ -2843,10 +2954,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>118</v>
+        <v>274</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="G88" s="12"/>
     </row>
@@ -2855,10 +2966,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="G89" s="12"/>
     </row>
@@ -2867,7 +2975,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>47</v>
@@ -2879,19 +2987,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>315</v>
+        <v>101</v>
       </c>
       <c r="G91" s="12"/>
     </row>
@@ -2900,7 +2999,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>47</v>
@@ -2912,10 +3011,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>276</v>
+        <v>122</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="G93" s="12"/>
     </row>
@@ -2924,13 +3032,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G94" s="12"/>
     </row>
@@ -2939,7 +3044,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>47</v>
@@ -2951,10 +3056,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G96" s="12"/>
     </row>
@@ -2963,19 +3071,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>319</v>
+        <v>127</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="G97" s="12"/>
     </row>
@@ -2984,7 +3083,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>47</v>
@@ -2996,13 +3095,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>264</v>
+        <v>130</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>321</v>
       </c>
       <c r="G99" s="12"/>
     </row>
@@ -3011,7 +3116,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>47</v>
@@ -3023,10 +3128,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>137</v>
+        <v>264</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="G101" s="12"/>
     </row>
@@ -3034,30 +3142,24 @@
       <c r="A102" s="10">
         <v>101</v>
       </c>
-      <c r="B102" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
+      <c r="B102" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="G102" s="12"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="10">
         <v>102</v>
       </c>
-      <c r="B103" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
+      <c r="B103" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="G103" s="12"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -3065,12 +3167,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C104" s="12"/>
-      <c r="D104" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="D104" s="12"/>
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
       <c r="G104" s="12"/>
@@ -3079,60 +3179,67 @@
       <c r="A105" s="10">
         <v>104</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D105" s="9" t="s">
+      <c r="B105" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D105" s="12" t="s">
         <v>34</v>
       </c>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="10">
         <v>105</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="B106" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="10">
         <v>106</v>
       </c>
-      <c r="B107" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
+      <c r="B107" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>107</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>144</v>
+      <c r="B108" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>303</v>
+      <c r="E108" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="F108" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="G108" s="12"/>
     </row>
@@ -3140,20 +3247,11 @@
       <c r="A109" s="10">
         <v>108</v>
       </c>
-      <c r="B109" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>290</v>
+      <c r="B109" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="G109" s="12"/>
     </row>
@@ -3161,15 +3259,13 @@
       <c r="A110" s="10">
         <v>109</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="B110" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3177,19 +3273,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G111" s="12"/>
     </row>
@@ -3197,20 +3293,20 @@
       <c r="A112" s="10">
         <v>111</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D112" s="9" t="s">
+      <c r="B112" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D112" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>325</v>
+      <c r="E112" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="G112" s="12"/>
     </row>
@@ -3219,22 +3315,34 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>153</v>
+        <v>278</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A114" s="10">
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="G114" s="12"/>
     </row>
@@ -3243,10 +3351,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="G115" s="12"/>
     </row>
@@ -3255,19 +3372,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>318</v>
+        <v>47</v>
       </c>
       <c r="G116" s="12"/>
     </row>
@@ -3276,7 +3384,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>47</v>
@@ -3288,13 +3396,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G118" s="12"/>
     </row>
@@ -3303,10 +3408,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>47</v>
+        <v>159</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="G119" s="12"/>
     </row>
@@ -3315,10 +3429,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>47</v>
@@ -3330,10 +3441,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="G121" s="12"/>
     </row>
@@ -3342,13 +3456,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="G122" s="12"/>
     </row>
@@ -3357,7 +3468,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>47</v>
@@ -3369,10 +3483,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="G124" s="12"/>
     </row>
@@ -3381,13 +3495,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G125" s="12"/>
     </row>
@@ -3396,19 +3510,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>332</v>
+        <v>170</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="F126" s="13" t="s">
-        <v>334</v>
+        <v>47</v>
       </c>
       <c r="G126" s="12"/>
     </row>
@@ -3417,7 +3522,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>47</v>
@@ -3429,13 +3534,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="G128" s="12"/>
     </row>
@@ -3444,10 +3549,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="G129" s="12"/>
     </row>
@@ -3456,7 +3570,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>47</v>
@@ -3467,34 +3581,27 @@
       <c r="A131" s="10">
         <v>130</v>
       </c>
-      <c r="B131" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
+      <c r="B131" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="G131" s="12"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="10">
         <v>131</v>
       </c>
-      <c r="B132" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
+      <c r="B132" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="G132" s="12"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -3502,10 +3609,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G133" s="12"/>
     </row>
@@ -3513,27 +3620,34 @@
       <c r="A134" s="10">
         <v>133</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="B134" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
       <c r="G134" s="12"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="10">
         <v>134</v>
       </c>
-      <c r="B135" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B135" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
       <c r="G135" s="12"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -3541,10 +3655,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G136" s="12"/>
     </row>
@@ -3553,10 +3667,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>258</v>
+        <v>47</v>
       </c>
       <c r="G137" s="12"/>
     </row>
@@ -3564,30 +3681,24 @@
       <c r="A138" s="10">
         <v>137</v>
       </c>
-      <c r="B138" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
+      <c r="B138" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="G138" s="12"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="10">
         <v>138</v>
       </c>
-      <c r="B139" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
+      <c r="B139" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="G139" s="12"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -3595,19 +3706,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="G140" s="12"/>
     </row>
@@ -3615,24 +3717,30 @@
       <c r="A141" s="10">
         <v>140</v>
       </c>
-      <c r="B141" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B141" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
       <c r="G141" s="12"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="10">
         <v>141</v>
       </c>
-      <c r="B142" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>280</v>
-      </c>
+      <c r="B142" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
       <c r="G142" s="12"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -3640,10 +3748,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>329</v>
       </c>
       <c r="G143" s="12"/>
     </row>
@@ -3651,11 +3768,20 @@
       <c r="A144" s="10">
         <v>143</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>197</v>
+      <c r="B144" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>349</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F144" s="19" t="s">
+        <v>351</v>
       </c>
       <c r="G144" s="12"/>
     </row>
@@ -3664,10 +3790,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>258</v>
+        <v>8</v>
       </c>
       <c r="G145" s="12"/>
     </row>
@@ -3676,10 +3802,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>47</v>
+        <v>280</v>
       </c>
       <c r="G146" s="12"/>
     </row>
@@ -3688,7 +3814,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>47</v>
@@ -3700,13 +3826,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G148" s="12"/>
     </row>
@@ -3714,11 +3837,20 @@
       <c r="A149" s="10">
         <v>148</v>
       </c>
-      <c r="B149" s="9" t="s">
-        <v>205</v>
+      <c r="B149" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>353</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="F149" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="G149" s="12"/>
     </row>
@@ -3727,10 +3859,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="G150" s="12"/>
     </row>
@@ -3739,7 +3871,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>47</v>
@@ -3751,10 +3883,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G152" s="12"/>
     </row>
@@ -3762,17 +3894,15 @@
       <c r="A153" s="10">
         <v>152</v>
       </c>
-      <c r="B153" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
+      <c r="B153" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="G153" s="12"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -3780,10 +3910,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="G154" s="12"/>
     </row>
@@ -3792,10 +3922,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="G155" s="12"/>
     </row>
@@ -3804,19 +3934,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E156" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>301</v>
+        <v>47</v>
       </c>
       <c r="G156" s="12"/>
     </row>
@@ -3825,7 +3946,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>8</v>
@@ -3836,12 +3957,17 @@
       <c r="A158" s="10">
         <v>157</v>
       </c>
-      <c r="B158" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D158" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B158" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
       <c r="G158" s="12"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -3849,19 +3975,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>307</v>
+        <v>134</v>
       </c>
       <c r="G159" s="12"/>
     </row>
@@ -3870,10 +3987,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>8</v>
@@ -3884,17 +3998,44 @@
       <c r="A161" s="10">
         <v>160</v>
       </c>
+      <c r="B161" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>301</v>
+      </c>
       <c r="G161" s="12"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="10">
         <v>161</v>
       </c>
+      <c r="B162" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="G162" s="12"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="10">
         <v>162</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="G163" s="12"/>
     </row>
@@ -3902,12 +4043,36 @@
       <c r="A164" s="10">
         <v>163</v>
       </c>
+      <c r="B164" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="G164" s="12"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="10">
         <v>164</v>
       </c>
+      <c r="B165" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="G165" s="12"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -4457,17 +4622,19 @@
       <c r="F271" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Oz3ZrMnw+xJJyxAe6BOUeqHedZiZqOGsWGMj4Zd9PNikH3GYKR0H1xNo28h5PwpTXt7PKjJf4Eo48369LYIhqA==" saltValue="mgmpVc0aXhyJt3geQaWxsA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <hyperlinks>
+    <hyperlink ref="F108" r:id="rId1" xr:uid="{A6B802A1-3CE2-4904-96BF-0EDD6E0C6947}"/>
+  </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;L
 &amp;G&amp;C&amp;"Arial,Regular"&amp;16MEMBER LIST</oddHeader>
     <oddFooter>&amp;CPage &amp;P of &amp;N&amp;R*CBV = Can't be verified</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4877,7 +5044,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j7tij8UpEhMVmng9ajr1LpKJ12FTV0Hkdz/s0LwFqfCRFMeUJDVu2mvRajp/BcS3rw4mh9EZIKRauQqOjvEiRA==" saltValue="7Pp9PxMLnEhhvAY92bJNtg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="C3:F36" xr:uid="{3F172FE6-F097-492B-A1B7-25CB3B7AC1DF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5124,7 +5290,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="or0USpYgmNvpIclAVk1t3JvnP2iOy2WOOoctXsjvELCI21i7we1Dye0zDEWIA5JSemysN9wSH7wNVb6+cnvx5g==" saltValue="wpjYuddmLh5iSCqun6yTEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B1:E16" xr:uid="{1DC62E23-62AA-4DCD-94C8-C544D6BD0733}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E16">
       <sortCondition ref="B1:B16"/>
